--- a/WireFrames/SWOT.xlsx
+++ b/WireFrames/SWOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_github-swi1-semestral-work-1\swi1-semestral-work-1\WireFrames\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GTomy\IdeaProjects\swi1-semestral-work-1\WireFrames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37FCA31-7B00-4F6F-A1EC-89CBD6F4EA80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D06754-CB7C-4F61-A182-04EE48D5E2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DFCD73F-4ACD-456C-A9B4-FFEAA01F7D4C}"/>
+    <workbookView xWindow="57480" yWindow="9825" windowWidth="29040" windowHeight="16440" xr2:uid="{5DFCD73F-4ACD-456C-A9B4-FFEAA01F7D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Silné stránky</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Slevy a další výhody stálým zákazníkům</t>
+  </si>
+  <si>
+    <t>Elektronický systém objednávek</t>
+  </si>
+  <si>
+    <t>Papírové řešení objednávek</t>
   </si>
 </sst>
 </file>
@@ -582,13 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A813D1B5-96E7-4733-AE4D-9C028EA2B01B}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="34.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -605,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
@@ -622,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
@@ -639,7 +648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -651,17 +660,19 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="19"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="17"/>
+      <c r="F6" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>2</v>
       </c>
@@ -678,7 +689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
@@ -695,8 +706,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -710,7 +723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -720,7 +733,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
